--- a/Тестовые задания/vk/check_list.xlsx
+++ b/Тестовые задания/vk/check_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Main\Education\QA\Portfolio\Тестовые задания\vk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1258A955-8924-45F0-9FE6-EF9ADF3D3D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0837E9B-DAE2-48E5-B835-EED4E5C3474D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="141">
   <si>
     <t>ID</t>
   </si>
@@ -104,9 +104,6 @@
     <t>Проверка ссылки создания нового аккаунта "Create account" на странице авторизации</t>
   </si>
   <si>
-    <t>Проверка кнопки авторизации "Log in"</t>
-  </si>
-  <si>
     <t>Проверка ссылки регистрации "Registration"</t>
   </si>
   <si>
@@ -167,9 +164,6 @@
     <t xml:space="preserve">Проверка нажатия на QR-код на странице авторизации </t>
   </si>
   <si>
-    <t xml:space="preserve">QR-код обновлен </t>
-  </si>
-  <si>
     <t>Окрыта страница "Sign in using a QR code"</t>
   </si>
   <si>
@@ -236,9 +230,6 @@
     <t>Открыта страница восстановления пароля</t>
   </si>
   <si>
-    <t>Открыто модальное окно авторизации пользователя</t>
-  </si>
-  <si>
     <t xml:space="preserve">Открыта страница регистрации пользователя </t>
   </si>
   <si>
@@ -278,91 +269,37 @@
     <t>Проверка вставки данных из буфера обмена (CTRL+V) в поле ввода Email</t>
   </si>
   <si>
-    <t>Проверка вставки данных из буфера обмена (ПКМ) в поле ввода Email</t>
-  </si>
-  <si>
     <t>Проверка копирования введенных данных (CTRL+C) из поля ввода Email</t>
   </si>
   <si>
-    <t>Проверка копирования введенных данных (ПКМ) из поля ввода Email</t>
-  </si>
-  <si>
     <t>Проверка отмены действия (CTRL+Z) в поле ввода Email</t>
   </si>
   <si>
-    <t>Проверка отмены действия (ПКМ) в поле ввода Email</t>
-  </si>
-  <si>
     <t>Проверка выделения текста (CTRL+A) в поле ввода Email</t>
   </si>
   <si>
-    <t>Проверка выделения текста (ПКМ) в поле ввода Email</t>
-  </si>
-  <si>
-    <t>Проверка перетаскивания данных (Drag-and-drop) в поле ввода Email</t>
-  </si>
-  <si>
-    <t>Проверка перетаскивания данных (Drag-and-drop) из поля ввода Email</t>
-  </si>
-  <si>
     <t>Проверка вставки данных из буфера обмена (CTRL+V) в поле ввода пароля (пароль отображается)</t>
   </si>
   <si>
-    <t>Проверка вставки данных из буфера обмена (ПКМ) в поле ввода пароля (пароль отображается)</t>
-  </si>
-  <si>
     <t>Проверка копирования введенных данных (CTRL+C)  из поля ввода пароля (пароль отображается)</t>
   </si>
   <si>
-    <t>Проверка копирования введенных данных (ПКМ)  из поля ввода пароля (пароль отображается)</t>
-  </si>
-  <si>
     <t>Проверка отмены действия (CTRL+Z) в поле ввода пароля (пароль отображается)</t>
   </si>
   <si>
-    <t>Проверка отмены действия (ПКМ) в поле ввода пароля (пароль отображается)</t>
-  </si>
-  <si>
     <t>Проверка выделения текста (CTRL+A) в поле ввода пароля (пароль отображается)</t>
   </si>
   <si>
-    <t>Проверка выделения текста (ПКМ) в поле ввода пароля (пароль отображается)</t>
-  </si>
-  <si>
-    <t>Проверка перетаскивания данных (Drag-and-drop) в поле ввода пароля (пароль отображается)</t>
-  </si>
-  <si>
-    <t>Проверка перетаскивания данных (Drag-and-drop) из поля ввода пароля (пароль отображается)</t>
-  </si>
-  <si>
     <t>Проверка вставки данных из буфера обмена (CTRL+V) в поле ввода пароля (пароль скрыт)</t>
   </si>
   <si>
-    <t>Проверка вставки данных из буфера обмена (ПКМ) в поле ввода пароля (пароль скрыт)</t>
-  </si>
-  <si>
     <t>Проверка копирования введенных данных (CTRL+C) из поля ввода пароля (пароль скрыт)</t>
   </si>
   <si>
-    <t>Проверка копирования введенных данных (ПКМ) из поля ввода пароля (пароль скрыт)</t>
-  </si>
-  <si>
     <t>Проверка отмены действия (CTRL+Z) в поле ввода пароля (пароль скрыт)</t>
   </si>
   <si>
-    <t>Проверка отмены действия (ПКМ) в поле ввода пароля (пароль скрыт)</t>
-  </si>
-  <si>
-    <t>Проверка перетаскивания данных (Drag-and-drop) в поле ввода пароля (пароль скрыт)</t>
-  </si>
-  <si>
     <t>Проверка выделения текста (CTRL+A) в поле ввода пароля (пароль скрыт)</t>
-  </si>
-  <si>
-    <t>Проверка выделения текста (ПКМ) в поле ввода пароля (пароль скрыт)</t>
-  </si>
-  <si>
-    <t>Проверка перетаскивания данных (Drag-and-drop) из поля ввода пароля (пароль скрыт)</t>
   </si>
   <si>
     <t>Проверка переключения между полями с помощью кнопки "Tab"</t>
@@ -458,6 +395,66 @@
   </si>
   <si>
     <t>Проверка страницы авторизации пользователя</t>
+  </si>
+  <si>
+    <t>Проверка авторизации через кнопку "Log in"</t>
+  </si>
+  <si>
+    <t>Проверка переноса данных (Drag-and-drop) в поле ввода пароля (пароль скрыт)</t>
+  </si>
+  <si>
+    <t>Проверка переноса данных (Drag-and-drop) из поля ввода пароля (пароль скрыт)</t>
+  </si>
+  <si>
+    <t>Проверка выделения текста (ПКМ - Выделить всё) в поле ввода пароля (пароль скрыт)</t>
+  </si>
+  <si>
+    <t>Проверка отмены действия (ПКМ - Отменить) в поле ввода пароля (пароль скрыт)</t>
+  </si>
+  <si>
+    <t>Проверка копирования введенных данных (ПКМ - Копировать) из поля ввода пароля (пароль скрыт)</t>
+  </si>
+  <si>
+    <t>Проверка вставки данных из буфера обмена (ПКМ - Вставить) в поле ввода пароля (пароль скрыт)</t>
+  </si>
+  <si>
+    <t>Проверка переноса данных (Drag-and-drop) из поля ввода пароля (пароль отображается)</t>
+  </si>
+  <si>
+    <t>Проверка переноса данных (Drag-and-drop) в поле ввода пароля (пароль отображается)</t>
+  </si>
+  <si>
+    <t>Проверка выделения текста (ПКМ - Выделить всё) в поле ввода пароля (пароль отображается)</t>
+  </si>
+  <si>
+    <t>Проверка отмены действия (ПКМ - Отменить) в поле ввода пароля (пароль отображается)</t>
+  </si>
+  <si>
+    <t>Проверка копирования введенных данных (ПКМ - Копировать)  из поля ввода пароля (пароль отображается)</t>
+  </si>
+  <si>
+    <t>Проверка вставки данных из буфера обмена (ПКМ - Вставить) в поле ввода пароля (пароль отображается)</t>
+  </si>
+  <si>
+    <t>Проверка переноса данных (Drag-and-drop) из поля ввода Email</t>
+  </si>
+  <si>
+    <t>Проверка переноса данных (Drag-and-drop) в поле ввода Email</t>
+  </si>
+  <si>
+    <t>Проверка выделения текста (ПКМ - Выделить всё) в поле ввода Email</t>
+  </si>
+  <si>
+    <t>Проверка отмены действия (ПКМ - Отменить) в поле ввода Email</t>
+  </si>
+  <si>
+    <t>Проверка копирования введенных данных (ПКМ - Копировать) из поля ввода Email</t>
+  </si>
+  <si>
+    <t>Проверка вставки данных из буфера обмена (ПКМ - Вставить) в поле ввода Email</t>
+  </si>
+  <si>
+    <t>Пользователь авторизован через новый  QR-код</t>
   </si>
 </sst>
 </file>
@@ -933,6 +930,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -986,21 +998,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1329,7 +1326,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2:I2"/>
+      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1350,150 +1347,150 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="33"/>
+      <c r="A1" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="38"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
-        <v>115</v>
-      </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="36"/>
+      <c r="A2" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="51"/>
+      <c r="C2" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="41"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
-        <v>116</v>
-      </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="36"/>
+      <c r="A3" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="51"/>
+      <c r="C3" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="41"/>
     </row>
     <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="36"/>
+      <c r="A4" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="51"/>
+      <c r="C4" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="41"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="s">
-        <v>120</v>
-      </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="37">
+      <c r="A5" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="51"/>
+      <c r="C5" s="42">
         <v>45054</v>
       </c>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="39"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="44"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="36"/>
+      <c r="A6" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="51"/>
+      <c r="C6" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="41"/>
     </row>
     <row r="7" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="42"/>
+      <c r="A7" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="35"/>
+      <c r="C7" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="47"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="47" t="s">
+      <c r="C8" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="51"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="33"/>
     </row>
     <row r="9" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="48"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
       <c r="E9" s="8" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -1501,28 +1498,28 @@
         <v>1</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
@@ -1530,28 +1527,28 @@
         <v>2</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
@@ -1559,28 +1556,28 @@
         <v>3</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
@@ -1591,25 +1588,25 @@
         <v>20</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
@@ -1620,25 +1617,25 @@
         <v>7</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -1649,25 +1646,25 @@
         <v>10</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -1678,25 +1675,25 @@
         <v>11</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -1707,25 +1704,25 @@
         <v>12</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -1736,25 +1733,25 @@
         <v>13</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -1765,25 +1762,25 @@
         <v>3</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -1794,25 +1791,25 @@
         <v>2</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -1823,25 +1820,25 @@
         <v>14</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -1852,25 +1849,25 @@
         <v>15</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -1881,25 +1878,25 @@
         <v>16</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -1910,25 +1907,25 @@
         <v>17</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -1939,25 +1936,25 @@
         <v>9</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -1968,25 +1965,25 @@
         <v>6</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -1994,28 +1991,28 @@
         <v>18</v>
       </c>
       <c r="B27" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="C27" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>133</v>
-      </c>
       <c r="F27" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -2026,25 +2023,25 @@
         <v>4</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -2055,54 +2052,54 @@
         <v>5</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="I29" s="14" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A30" s="15">
         <v>21</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>45</v>
+        <v>140</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="I30" s="14" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
@@ -2113,54 +2110,54 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="I31" s="14" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A32" s="15">
         <v>23</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>45</v>
+        <v>140</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="I32" s="14" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
@@ -2168,28 +2165,28 @@
         <v>24</v>
       </c>
       <c r="B33" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="16" t="s">
-        <v>46</v>
-      </c>
       <c r="D33" s="15" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
@@ -2197,28 +2194,28 @@
         <v>25</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="I34" s="14" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -2226,28 +2223,28 @@
         <v>26</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="I35" s="14" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
@@ -2255,28 +2252,28 @@
         <v>27</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="I36" s="14" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
@@ -2284,28 +2281,28 @@
         <v>28</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="I37" s="14" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
@@ -2313,28 +2310,28 @@
         <v>29</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="I38" s="14" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
@@ -2345,25 +2342,25 @@
         <v>18</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="I39" s="14" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
@@ -2374,25 +2371,25 @@
         <v>19</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="I40" s="14" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
@@ -2403,25 +2400,25 @@
         <v>21</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="I41" s="14" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
@@ -2429,28 +2426,28 @@
         <v>33</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="I42" s="14" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
@@ -2458,28 +2455,28 @@
         <v>34</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="I43" s="14" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -2487,28 +2484,28 @@
         <v>35</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="I44" s="14" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -2516,28 +2513,28 @@
         <v>36</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="I45" s="14" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
@@ -2545,28 +2542,28 @@
         <v>37</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="I46" s="14" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
@@ -2574,28 +2571,28 @@
         <v>38</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="I47" s="14" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
@@ -2603,28 +2600,28 @@
         <v>39</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>86</v>
+        <v>137</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="I48" s="14" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
@@ -2632,28 +2629,28 @@
         <v>40</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="I49" s="14" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
@@ -2661,28 +2658,28 @@
         <v>41</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>88</v>
+        <v>136</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="I50" s="14" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
@@ -2690,28 +2687,28 @@
         <v>42</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="I51" s="14" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
@@ -2719,28 +2716,28 @@
         <v>43</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="I52" s="14" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
@@ -2748,28 +2745,28 @@
         <v>44</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="I53" s="14" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
@@ -2777,28 +2774,28 @@
         <v>45</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="I54" s="14" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
@@ -2806,28 +2803,28 @@
         <v>46</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="I55" s="14" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
@@ -2835,28 +2832,28 @@
         <v>47</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="I56" s="14" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
@@ -2864,28 +2861,28 @@
         <v>48</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="I57" s="14" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
@@ -2893,28 +2890,28 @@
         <v>49</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="I58" s="14" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
@@ -2922,28 +2919,28 @@
         <v>50</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="I59" s="14" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
@@ -2951,28 +2948,28 @@
         <v>51</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="I60" s="14" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
@@ -2980,28 +2977,28 @@
         <v>52</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="E61" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="I61" s="14" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
@@ -3009,28 +3006,28 @@
         <v>53</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="E62" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="I62" s="14" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
@@ -3038,28 +3035,28 @@
         <v>54</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="E63" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="I63" s="14" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
@@ -3067,28 +3064,28 @@
         <v>55</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c r="E64" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="I64" s="14" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
@@ -3096,28 +3093,28 @@
         <v>56</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c r="E65" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="I65" s="14" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
@@ -3125,28 +3122,28 @@
         <v>57</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="E66" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="I66" s="14" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
@@ -3154,28 +3151,28 @@
         <v>58</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c r="E67" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="I67" s="14" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
@@ -3183,28 +3180,28 @@
         <v>59</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="E68" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="I68" s="14" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
@@ -3212,28 +3209,28 @@
         <v>60</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c r="E69" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="I69" s="14" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
@@ -3241,28 +3238,28 @@
         <v>61</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="E70" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="I70" s="14" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
@@ -3270,28 +3267,28 @@
         <v>62</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c r="E71" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="I71" s="14" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
@@ -3299,28 +3296,28 @@
         <v>63</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="E72" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="I72" s="14" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
@@ -3328,28 +3325,28 @@
         <v>64</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c r="E73" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="I73" s="14" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
@@ -3357,28 +3354,28 @@
         <v>65</v>
       </c>
       <c r="B74" s="16" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="I74" s="14" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
@@ -3389,25 +3386,25 @@
         <v>22</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="E75" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="I75" s="14" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
@@ -3418,54 +3415,54 @@
         <v>23</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="E76" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="I76" s="14" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="15">
         <v>68</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>24</v>
+        <v>121</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="E77" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="I77" s="14" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
@@ -3473,28 +3470,28 @@
         <v>69</v>
       </c>
       <c r="B78" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="E78" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="I78" s="14" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
@@ -3502,28 +3499,28 @@
         <v>70</v>
       </c>
       <c r="B79" s="22" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="C79" s="22" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="D79" s="21" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="E79" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="I79" s="14" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
@@ -3531,28 +3528,28 @@
         <v>71</v>
       </c>
       <c r="B80" s="22" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D80" s="21" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="E80" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="I80" s="14" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -3560,37 +3557,32 @@
         <v>72</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="C81" s="18" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="E81" s="26" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F81" s="27" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="G81" s="27" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="H81" s="27" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="I81" s="28" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:I8"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C1:I1"/>
     <mergeCell ref="C2:I2"/>
@@ -3605,6 +3597,11 @@
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:I8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="43" orientation="portrait" r:id="rId1"/>
@@ -3722,55 +3719,55 @@
     <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="1:2" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
